--- a/animations/2-matrix-sparkle.xlsx
+++ b/animations/2-matrix-sparkle.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89017A84-DDBB-6D4D-B0EE-C4B988B49E68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12420" yWindow="460" windowWidth="12960" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +331,400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="46" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+      <c r="P1">
+        <v>6</v>
+      </c>
+      <c r="Q1">
+        <v>7</v>
+      </c>
+      <c r="R1">
+        <v>8</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>